--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Reeves.Fall.121119.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Reeves.Fall.121119.xlsx_with_dialog_acts.xlsx
@@ -1151,12 +1151,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1403,12 +1403,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2255,12 +2255,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2339,12 +2339,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2931,12 +2931,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3945,12 +3945,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4369,12 +4369,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4411,12 +4411,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4873,12 +4873,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5167,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6007,12 +6007,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6049,12 +6049,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6133,12 +6133,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6427,12 +6427,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6595,12 +6595,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7057,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7393,12 +7393,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7645,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7939,12 +7939,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8149,12 +8149,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8821,12 +8821,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9913,12 +9913,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9955,12 +9955,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10039,12 +10039,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10459,12 +10459,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10921,12 +10921,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11177,12 +11177,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11219,12 +11219,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11387,12 +11387,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11429,12 +11429,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12273,12 +12273,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12399,12 +12399,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12693,12 +12693,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12777,12 +12777,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13285,12 +13285,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13665,12 +13665,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14001,12 +14001,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14715,12 +14715,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14883,12 +14883,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15559,12 +15559,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15601,12 +15601,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15895,12 +15895,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15979,12 +15979,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16021,12 +16021,12 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16231,12 +16231,12 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16445,12 +16445,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17335,12 +17335,12 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17503,12 +17503,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18133,12 +18133,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18175,12 +18175,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18217,12 +18217,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18679,12 +18679,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18721,12 +18721,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18847,12 +18847,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19271,12 +19271,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19313,12 +19313,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19775,12 +19775,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19901,12 +19901,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20027,12 +20027,12 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20111,12 +20111,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20531,12 +20531,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20699,12 +20699,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20825,12 +20825,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21039,12 +21039,12 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21207,12 +21207,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21375,12 +21375,12 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21417,12 +21417,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21795,12 +21795,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22089,12 +22089,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22509,12 +22509,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22929,12 +22929,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23055,12 +23055,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23139,12 +23139,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23223,12 +23223,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23349,12 +23349,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23979,12 +23979,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24273,12 +24273,12 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24399,12 +24399,12 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25365,12 +25365,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25575,12 +25575,12 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25911,12 +25911,12 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26121,12 +26121,12 @@
       <c r="H610" t="inlineStr"/>
       <c r="I610" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26583,12 +26583,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26877,12 +26877,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27591,12 +27591,12 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27801,12 +27801,12 @@
       <c r="H650" t="inlineStr"/>
       <c r="I650" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28179,12 +28179,12 @@
       <c r="H659" t="inlineStr"/>
       <c r="I659" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28725,12 +28725,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28767,12 +28767,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29019,12 +29019,12 @@
       <c r="H679" t="inlineStr"/>
       <c r="I679" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29439,12 +29439,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29523,12 +29523,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
